--- a/Java11/Java 11 MCQs.xlsx
+++ b/Java11/Java 11 MCQs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IIHT\CTS\DTP_2021\AssessmentAndAssignmentsJan2021\Deliverables\Java11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3312859-40F0-4FD1-A05F-929EAE38791C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADDA95-48E5-4EB3-9D0D-D06C6AB5DA3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{690490E1-59DC-4451-B67B-5CC185675160}"/>
   </bookViews>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
